--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -85,22 +85,22 @@
     <t>support</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>hope</t>
@@ -962,25 +962,25 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6652360515021459</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L15">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="N15">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O15">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -988,25 +988,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6521739130434783</v>
+        <v>0.6485355648535565</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1066,25 +1066,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5548780487804879</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="L19">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="M19">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>146</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1092,25 +1092,25 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5444444444444444</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="M20">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="N20">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>41</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="10:17">
